--- a/files/data_0.xlsx
+++ b/files/data_0.xlsx
@@ -1,27 +1,314 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21601"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904BF073-A54D-463A-9EB9-C3B547B34AF0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Arkusz1" state="visible" r:id="rId3"/>
+    <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="86">
+  <si>
+    <t>CALIBRATION REPORT : K220/19</t>
+  </si>
+  <si>
+    <t>CLIENT</t>
+  </si>
+  <si>
+    <t>RADWAG Wagi Elektroniczne</t>
+  </si>
+  <si>
+    <t>ul. Toruńska 5 26-600 Radom</t>
+  </si>
+  <si>
+    <t>USER</t>
+  </si>
+  <si>
+    <t>CALIBRATION OBJECT - CHARACTERISTICS [B]</t>
+  </si>
+  <si>
+    <t>Object name</t>
+  </si>
+  <si>
+    <t>Material</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>Material density</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Material dens. Det. Uncert.</t>
+  </si>
+  <si>
+    <t>Year of manufacture</t>
+  </si>
+  <si>
+    <t>Shape</t>
+  </si>
+  <si>
+    <t>Marking</t>
+  </si>
+  <si>
+    <t>Maximum Permissible Error</t>
+  </si>
+  <si>
+    <t>Class (OIML R-111)</t>
+  </si>
+  <si>
+    <t>Air Density</t>
+  </si>
+  <si>
+    <t>Nominal mass</t>
+  </si>
+  <si>
+    <t>Set no</t>
+  </si>
+  <si>
+    <t>Adjustment</t>
+  </si>
+  <si>
+    <t>REFERENCE WEIGHT - CHARACTERISTICS [A]</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Calibration uncertainty</t>
+  </si>
+  <si>
+    <t>Calibration Certificate</t>
+  </si>
+  <si>
+    <t>Marking/type</t>
+  </si>
+  <si>
+    <t>Scale interval</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>MEASURE DEVICE</t>
+  </si>
+  <si>
+    <t>Temperature [C]</t>
+  </si>
+  <si>
+    <t>Humidity [%]</t>
+  </si>
+  <si>
+    <t>Pressure [hPa]</t>
+  </si>
+  <si>
+    <t>AMBIENT CONDITIONS AT MEASUREMENT START</t>
+  </si>
+  <si>
+    <t>Measurement</t>
+  </si>
+  <si>
+    <t>Measurement correction</t>
+  </si>
+  <si>
+    <t>AMBIENT CONDITIONS AT MEASUREMENT END</t>
+  </si>
+  <si>
+    <t>Average DIFFERENCE (B-A):</t>
+  </si>
+  <si>
+    <t>0,0000130 g</t>
+  </si>
+  <si>
+    <t>Standard deviation:</t>
+  </si>
+  <si>
+    <t>0,00000037g</t>
+  </si>
+  <si>
+    <t>Measurement uncertainty:</t>
+  </si>
+  <si>
+    <t>0,0000025g</t>
+  </si>
+  <si>
+    <t>Coverage factor:</t>
+  </si>
+  <si>
+    <t>Calibration result:</t>
+  </si>
+  <si>
+    <t>5,000173g</t>
+  </si>
+  <si>
+    <t>Calibration uncerainty</t>
+  </si>
+  <si>
+    <t>Calibration start time:</t>
+  </si>
+  <si>
+    <t>Calibration end time:</t>
+  </si>
+  <si>
+    <t>Calibration mass:</t>
+  </si>
+  <si>
+    <t>0g</t>
+  </si>
+  <si>
+    <t>Calibration certificate</t>
+  </si>
+  <si>
+    <t>Order number:</t>
+  </si>
+  <si>
+    <t>Z7/19</t>
+  </si>
+  <si>
+    <t>CYCLE NO.1</t>
+  </si>
+  <si>
+    <t>DIFFERENCE (B-A): 0,0000135 g</t>
+  </si>
+  <si>
+    <t>OBJECT</t>
+  </si>
+  <si>
+    <t>INDICATION</t>
+  </si>
+  <si>
+    <t>CONTROL</t>
+  </si>
+  <si>
+    <t>0.0000018 [g]</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>-0.0001 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001018 [g]</t>
+  </si>
+  <si>
+    <t>0.0000066 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.2</t>
+  </si>
+  <si>
+    <t>0.000004 [g]</t>
+  </si>
+  <si>
+    <t>-0.0000998 [g]</t>
+  </si>
+  <si>
+    <t>0.0000056 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.3</t>
+  </si>
+  <si>
+    <t>-0.0001012 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001038 [g]</t>
+  </si>
+  <si>
+    <t>0.0000052 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.4</t>
+  </si>
+  <si>
+    <t>0.0000032 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001026 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001046 [g]</t>
+  </si>
+  <si>
+    <t>0.000005 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.5</t>
+  </si>
+  <si>
+    <t>0.000002 [g]</t>
+  </si>
+  <si>
+    <t>-0.000105 [g]</t>
+  </si>
+  <si>
+    <t>0.0000012 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.6</t>
+  </si>
+  <si>
+    <t>-2e-7 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001062 [g]</t>
+  </si>
+  <si>
+    <t>-0.0001078 [g]</t>
+  </si>
+  <si>
+    <t>0.0000014 [g]</t>
+  </si>
+  <si>
+    <t>CYCLE NO.7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.0_ ;\-0.0\ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -32,7 +319,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -40,15 +327,159 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="9"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -359,136 +790,1425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="T53:T76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B4:P116"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20:F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="53" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T53">
-        <v>0.0000026</v>
-      </c>
-    </row>
-    <row r="54" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T54">
-        <v>0.0000396</v>
-      </c>
-    </row>
-    <row r="55" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T55">
-        <v>0.0000382</v>
-      </c>
-    </row>
-    <row r="56" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T56">
-        <v>0.0000068</v>
-      </c>
-    </row>
-    <row r="57" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T57">
-        <v>0.0000048</v>
-      </c>
-    </row>
-    <row r="58" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T58">
-        <v>0.00004</v>
-      </c>
-    </row>
-    <row r="59" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T59">
-        <v>0.0000388</v>
-      </c>
-    </row>
-    <row r="60" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T60">
-        <v>0.0000082</v>
-      </c>
-    </row>
-    <row r="61" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T61">
-        <v>0.0000068</v>
-      </c>
-    </row>
-    <row r="62" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T62">
-        <v>0.0000416</v>
-      </c>
-    </row>
-    <row r="63" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T63">
-        <v>0.00004</v>
-      </c>
-    </row>
-    <row r="64" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T64">
-        <v>0.00001</v>
-      </c>
-    </row>
-    <row r="65" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T65">
-        <v>0.00001</v>
-      </c>
-    </row>
-    <row r="66" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T66">
-        <v>0.0000426</v>
-      </c>
-    </row>
-    <row r="67" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T67">
-        <v>0.0000408</v>
-      </c>
-    </row>
-    <row r="68" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T68">
-        <v>0.0000104</v>
-      </c>
-    </row>
-    <row r="69" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T69">
-        <v>0.0000092</v>
-      </c>
-    </row>
-    <row r="70" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T70">
-        <v>0.000043</v>
-      </c>
-    </row>
-    <row r="71" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T71">
-        <v>0.0000406</v>
-      </c>
-    </row>
-    <row r="72" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T72">
-        <v>0.0000088</v>
-      </c>
-    </row>
-    <row r="73" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T73">
-        <v>0.0000092</v>
-      </c>
-    </row>
-    <row r="74" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T74">
-        <v>0.0000394</v>
-      </c>
-    </row>
-    <row r="75" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T75">
-        <v>0.000038</v>
-      </c>
-    </row>
-    <row r="76" spans="20:20" x14ac:dyDescent="0.25">
-      <c r="T76">
-        <v>0.0000076</v>
-      </c>
+    <row r="4" spans="2:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B17" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="12"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B18" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="11"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="12"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="15"/>
+      <c r="N25" s="15"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="28"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B32" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B34" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B35" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="18"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="10"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M38" s="16"/>
+      <c r="N38" s="16"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="M43" s="16"/>
+      <c r="N43" s="16"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="21"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="21"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C48" s="22"/>
+      <c r="E48" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="22"/>
+      <c r="E49" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B50" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="22"/>
+      <c r="E50" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="22"/>
+      <c r="E51" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52" s="22"/>
+      <c r="E52" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="22"/>
+      <c r="E53" s="23">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F53" s="23"/>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C54" s="22"/>
+      <c r="E54" s="6">
+        <v>43558</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="7">
+        <v>43558.491932870369</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="15"/>
+      <c r="D69" s="3">
+        <v>1</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="G69" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H69" s="22"/>
+      <c r="I69" s="22"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G70" s="25"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="G71" s="25"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="G72" s="25"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G73" s="25"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B74" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G74" s="25"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B76" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C76" s="15"/>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3"/>
+      <c r="G76" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B77" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G77" s="25"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B78" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G78" s="25"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="G79" s="25"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="G80" s="25"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B81" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="G81" s="25"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C83" s="15"/>
+      <c r="D83" s="3">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="G83" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B84" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" s="25"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B85" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B86" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="G86" s="25"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B87" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G87" s="25"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B88" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="25"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B90" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="15"/>
+      <c r="D90" s="3">
+        <v>4</v>
+      </c>
+      <c r="E90" s="3"/>
+      <c r="G90" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H90" s="22"/>
+      <c r="I90" s="22"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B91" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="G91" s="25"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B92" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="G92" s="25"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B93" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="25" t="s">
+        <v>73</v>
+      </c>
+      <c r="G93" s="25"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B94" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B95" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="G95" s="25"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C97" s="15"/>
+      <c r="D97" s="3">
+        <v>5</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="G97" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H97" s="22"/>
+      <c r="I97" s="22"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G98" s="26"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="G99" s="25"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="G100" s="25"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="25"/>
+    </row>
+    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B102" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102" s="27"/>
+    </row>
+    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B104" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" s="15"/>
+      <c r="D104" s="3">
+        <v>6</v>
+      </c>
+      <c r="E104" s="3"/>
+      <c r="G104" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H104" s="22"/>
+      <c r="I104" s="22"/>
+    </row>
+    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B105" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G105" s="26"/>
+    </row>
+    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B106" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G106" s="25"/>
+    </row>
+    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B107" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G107" s="25"/>
+    </row>
+    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B108" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="G108" s="25"/>
+    </row>
+    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B109" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="G109" s="27"/>
+    </row>
+    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B111" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C111" s="15"/>
+      <c r="D111" s="3">
+        <v>7</v>
+      </c>
+      <c r="E111" s="3"/>
+      <c r="G111" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="H111" s="22"/>
+      <c r="I111" s="22"/>
+    </row>
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B112" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G112" s="26"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B113" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B114" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B115" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B116" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="27"/>
+      <c r="G116" s="27"/>
     </row>
   </sheetData>
+  <mergeCells count="203">
+    <mergeCell ref="B112:E112"/>
+    <mergeCell ref="F112:G112"/>
+    <mergeCell ref="B113:E113"/>
+    <mergeCell ref="F113:G113"/>
+    <mergeCell ref="B114:E114"/>
+    <mergeCell ref="F114:G114"/>
+    <mergeCell ref="B115:E115"/>
+    <mergeCell ref="F115:G115"/>
+    <mergeCell ref="B116:E116"/>
+    <mergeCell ref="F116:G116"/>
+    <mergeCell ref="B106:E106"/>
+    <mergeCell ref="F106:G106"/>
+    <mergeCell ref="B107:E107"/>
+    <mergeCell ref="F107:G107"/>
+    <mergeCell ref="B108:E108"/>
+    <mergeCell ref="F108:G108"/>
+    <mergeCell ref="B109:E109"/>
+    <mergeCell ref="F109:G109"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="B100:E100"/>
+    <mergeCell ref="F100:G100"/>
+    <mergeCell ref="B101:E101"/>
+    <mergeCell ref="F101:G101"/>
+    <mergeCell ref="B102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="B104:C104"/>
+    <mergeCell ref="G104:I104"/>
+    <mergeCell ref="B105:E105"/>
+    <mergeCell ref="F105:G105"/>
+    <mergeCell ref="B94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="B95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="G97:I97"/>
+    <mergeCell ref="B98:E98"/>
+    <mergeCell ref="F98:G98"/>
+    <mergeCell ref="B99:E99"/>
+    <mergeCell ref="F99:G99"/>
+    <mergeCell ref="B88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="G90:I90"/>
+    <mergeCell ref="B91:E91"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="B92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="B93:E93"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="G83:I83"/>
+    <mergeCell ref="B84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="B85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="B86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="B87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="B77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="B78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="B79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="B80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="B81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="B71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="B72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="B73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="B76:C76"/>
+    <mergeCell ref="G76:I76"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="B70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="H45:K45"/>
+    <mergeCell ref="L45:N45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:N46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:G43"/>
+    <mergeCell ref="H43:K43"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:G44"/>
+    <mergeCell ref="H44:K44"/>
+    <mergeCell ref="L44:N44"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:G38"/>
+    <mergeCell ref="H38:K38"/>
+    <mergeCell ref="L38:N38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:N39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="L40:N40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="H30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="H33:K33"/>
+    <mergeCell ref="L33:N33"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:G28"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="L28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:G29"/>
+    <mergeCell ref="H29:K29"/>
+    <mergeCell ref="L29:N29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="L23:N23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="L24:N24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="L25:N25"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:G21"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="L21:N21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="L22:N22"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:G16"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:G17"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:G13"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:G14"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:G15"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:G11"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="L12:N12"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>